--- a/08_Project_management/Issues_v1.00/ePO_Issues_Analysis_v0.1.xlsx
+++ b/08_Project_management/Issues_v1.00/ePO_Issues_Analysis_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbotapor\everis\LAIA - Documentos\General\eProcurement\O3PO M3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbotapor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="222">
   <si>
     <t>Title</t>
   </si>
@@ -541,9 +541,6 @@
     <t>https://github.com/eprocurementontology/eprocurementontology/issues/48</t>
   </si>
   <si>
-    <t xml:space="preserve">Priority </t>
-  </si>
-  <si>
     <t>Scope justification</t>
   </si>
   <si>
@@ -762,6 +759,18 @@
   </si>
   <si>
     <t>In the new ontology, is covered in a different way</t>
+  </si>
+  <si>
+    <t>See comments by OP in the issue. Already covered in the ontology and CM development</t>
+  </si>
+  <si>
+    <t>In v2.0.0 we have the entity Call for Competition, and two specialisations of it, Call for Tenders and Call for Proposals. Additionally the Procurement Procedure uses a "taxonomy" where one-phase and two-phase procedures are distinguished. Morevoer, the "proposal-for- decision" that Framework Agreements, DPS, and e-Auction are "Techniques" was also made with OP and DG GROWTH. The new model should cater for the requirement issued by Patrizia. But, of course, we have to review it with the Working Group.</t>
+  </si>
+  <si>
+    <t>We have identified the need for something called "e-Submission Process", but would be out-of-the-scope of this current modelling phase. Is Pratrizia referring to this or to a larger process?</t>
+  </si>
+  <si>
+    <t>Scope</t>
   </si>
 </sst>
 </file>
@@ -879,135 +888,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="16">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1034,6 +922,29 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1075,22 +986,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:L39" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:L39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B1:L39"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="issue" dataDxfId="26"/>
-    <tableColumn id="9" name="Priority " dataDxfId="25">
+    <tableColumn id="1" name="issue" dataDxfId="10"/>
+    <tableColumn id="9" name="Scope" dataDxfId="9">
       <calculatedColumnFormula>$C2="High"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Author" dataDxfId="24"/>
-    <tableColumn id="3" name="Title" dataDxfId="23"/>
-    <tableColumn id="4" name="Subject " dataDxfId="22"/>
-    <tableColumn id="5" name="Further comments" dataDxfId="21"/>
-    <tableColumn id="6" name="Author 2" dataDxfId="20"/>
-    <tableColumn id="8" name="Labels" dataDxfId="19"/>
-    <tableColumn id="7" name="Link" dataDxfId="16"/>
-    <tableColumn id="10" name="Scope justification" dataDxfId="14"/>
-    <tableColumn id="11" name="Date of resolution" dataDxfId="15"/>
+    <tableColumn id="2" name="Author" dataDxfId="8"/>
+    <tableColumn id="3" name="Title" dataDxfId="7"/>
+    <tableColumn id="4" name="Subject " dataDxfId="6"/>
+    <tableColumn id="5" name="Further comments" dataDxfId="5"/>
+    <tableColumn id="6" name="Author 2" dataDxfId="4"/>
+    <tableColumn id="8" name="Labels" dataDxfId="3"/>
+    <tableColumn id="7" name="Link" dataDxfId="2"/>
+    <tableColumn id="10" name="Scope justification" dataDxfId="1"/>
+    <tableColumn id="11" name="Date of resolution" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1361,12 +1272,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" customWidth="1"/>
@@ -1384,28 +1295,28 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>95</v>
@@ -1414,10 +1325,10 @@
         <v>68</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1425,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -1452,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L2" s="2">
         <v>20180208</v>
@@ -1463,10 +1374,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -1487,7 +1398,7 @@
         <v>26</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>48</v>
@@ -1498,22 +1409,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>7</v>
@@ -1525,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>48</v>
@@ -1536,10 +1447,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1557,13 +1468,13 @@
         <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L5" s="2">
         <v>20180208</v>
@@ -1574,10 +1485,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -1595,13 +1506,13 @@
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L6" s="2">
         <v>20180228</v>
@@ -1612,10 +1523,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -1636,7 +1547,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -1645,10 +1556,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -1669,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -1678,10 +1589,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
@@ -1702,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -1711,10 +1622,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -1738,7 +1649,7 @@
         <v>34</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L10" s="2">
         <v>20180313</v>
@@ -1749,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
@@ -1773,7 +1684,7 @@
         <v>43</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>48</v>
@@ -1784,10 +1695,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
@@ -1805,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -1814,10 +1725,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -1838,7 +1749,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L13" s="2"/>
     </row>
@@ -1847,10 +1758,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -1868,7 +1779,7 @@
         <v>120</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L14" s="2">
         <v>20180222</v>
@@ -1879,10 +1790,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
@@ -1903,7 +1814,7 @@
         <v>121</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>48</v>
@@ -1914,10 +1825,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1938,7 +1849,7 @@
         <v>122</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>48</v>
@@ -1949,10 +1860,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -1976,7 +1887,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L17" s="2">
         <v>20180208</v>
@@ -1987,10 +1898,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>55</v>
@@ -2014,7 +1925,7 @@
         <v>124</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L18" s="2"/>
     </row>
@@ -2023,10 +1934,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>55</v>
@@ -2050,7 +1961,7 @@
         <v>125</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -2059,10 +1970,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -2086,7 +1997,7 @@
         <v>126</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L20" s="2">
         <v>20180208</v>
@@ -2097,10 +2008,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -2124,7 +2035,7 @@
         <v>127</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -2133,10 +2044,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
@@ -2160,7 +2071,7 @@
         <v>128</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L22" s="2">
         <v>20180228</v>
@@ -2171,10 +2082,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -2198,7 +2109,7 @@
         <v>129</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L23" s="2">
         <v>20180228</v>
@@ -2209,10 +2120,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -2230,13 +2141,13 @@
         <v>11</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>130</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L24" s="2"/>
     </row>
@@ -2245,7 +2156,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
@@ -2275,10 +2186,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>12</v>
@@ -2299,7 +2210,7 @@
         <v>132</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L26" s="2"/>
     </row>
@@ -2308,10 +2219,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>12</v>
@@ -2344,10 +2255,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>12</v>
@@ -2380,7 +2291,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>12</v>
@@ -2413,10 +2327,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>12</v>
@@ -2437,7 +2351,7 @@
         <v>136</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>48</v>
@@ -2448,10 +2362,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>42</v>
@@ -2472,7 +2386,7 @@
         <v>137</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>48</v>
@@ -2483,10 +2397,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>42</v>
@@ -2507,7 +2421,7 @@
         <v>138</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>48</v>
@@ -2518,10 +2432,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>3</v>
@@ -2539,7 +2453,7 @@
         <v>139</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>48</v>
@@ -2550,10 +2464,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>12</v>
@@ -2577,7 +2491,7 @@
         <v>140</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>48</v>
@@ -2588,10 +2502,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>42</v>
@@ -2612,7 +2526,7 @@
         <v>141</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L35" s="2"/>
     </row>
@@ -2621,7 +2535,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>11</v>
@@ -2641,17 +2558,19 @@
       <c r="K36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2">
+        <v>20180314</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>12</v>
@@ -2672,7 +2591,7 @@
         <v>143</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>48</v>
@@ -2683,7 +2602,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
@@ -2716,10 +2638,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
@@ -2740,7 +2662,7 @@
         <v>145</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>48</v>
@@ -2748,22 +2670,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:J90">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$C1="IN SCOPE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L39">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$C2="IN SCOPE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A90">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$C40="IN SCOPE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"OUT OF SCOPE,IN SCOPE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2805,6 +2727,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010086F39D5D83ADD9468507A555B31C4813" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9ada51f3a9305168e22d9dfdd9213826">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b393a1de-0744-4406-b75a-772e47dd47b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0949a9b4a68664279aa0981a841ff066" ns2:_="">
     <xsd:import namespace="b393a1de-0744-4406-b75a-772e47dd47b0"/>
@@ -2936,7 +2864,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2945,20 +2873,44 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8299B906-066A-4FCE-8B9B-A4458C8C2475}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73DB9165-7FBF-4516-8387-657C27761A24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b393a1de-0744-4406-b75a-772e47dd47b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D3B522-9967-4AA8-B4E7-0475168E18AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8299B906-066A-4FCE-8B9B-A4458C8C2475}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b393a1de-0744-4406-b75a-772e47dd47b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73DB9165-7FBF-4516-8387-657C27761A24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D3B522-9967-4AA8-B4E7-0475168E18AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>